--- a/data/trans_dic/CONS_TEN-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>40,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,11%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,55%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>40,54%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,42; 44,54</t>
+          <t>30,12; 38,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,76; 41,22</t>
+          <t>28,95; 40,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,45; 29,56</t>
+          <t>29,96; 38,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,38; 51,9</t>
+          <t>37,06; 44,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,37; 53,01</t>
+          <t>43,76; 51,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,36; 34,92</t>
+          <t>41,25; 49,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,78; 47,5</t>
+          <t>35,31; 41,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,67; 47,54</t>
+          <t>39,56; 46,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,45; 31,71</t>
+          <t>37,73; 43,69</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>13,57%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 19,58</t>
+          <t>19,17; 22,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,81; 17,21</t>
+          <t>7,36; 16,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,61; 21,6</t>
+          <t>12,42; 15,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,7; 17,37</t>
+          <t>14,6; 17,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 31,75</t>
+          <t>12,16; 51,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,44; 17,09</t>
+          <t>11,49; 14,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,51; 18,09</t>
+          <t>17,43; 19,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 25,6</t>
+          <t>11,8; 40,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 18,96</t>
+          <t>12,46; 14,82</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,21</t>
+          <t>11,13; 16,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,31; 19,67</t>
+          <t>15,07; 21,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,1; 15,55</t>
+          <t>8,65; 13,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,05</t>
+          <t>5,42; 8,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 12,28</t>
+          <t>9,38; 14,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,96</t>
+          <t>4,17; 7,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,9</t>
+          <t>8,49; 11,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,94; 15,32</t>
+          <t>12,97; 16,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 10,69</t>
+          <t>6,62; 9,44</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,67; 22,63</t>
+          <t>19,61; 22,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 20,71</t>
+          <t>11,4; 19,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,71; 21,2</t>
+          <t>14,9; 17,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,25; 22,25</t>
+          <t>16,64; 19,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 31,62</t>
+          <t>18,7; 47,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,98; 17,97</t>
+          <t>15,35; 18,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 22,06</t>
+          <t>18,54; 20,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,82; 26,19</t>
+          <t>16,92; 35,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 19,1</t>
+          <t>15,63; 17,5</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la tensión arterial</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30385</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>79162</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>74331</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52086</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>188218</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>124111</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>82471</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>267380</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>198442</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26521; 34272</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>66097; 92107</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>64649; 83627</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>47342; 57369</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>172889; 204705</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>112903; 135678</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>76213; 89089</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>246635; 290156</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>184678; 213852</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>94392</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>179856</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>121106</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>69341</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>355702</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>113704</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>163732</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>535558</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>234809</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>86930; 101999</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>103606; 225514</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>107024; 135158</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>63038; 76384</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>168482; 708865</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>99792; 129447</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>154333; 174005</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>329775; 1140482</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>215637; 256358</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20640</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>84826</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40602</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13168</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>51801</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23250</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33808</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>136627</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>63852</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16880; 24456</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>69273; 99460</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32746; 50619</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10531; 16404</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>41598; 62289</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17384; 30769</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29356; 38848</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>117115; 153380</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>52640; 75107</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>145417</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>343844</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>236039</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>134595</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>595722</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>261065</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>280012</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>939565</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>497103</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>135922; 155595</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>238964; 402487</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>216997; 256334</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>125443; 144452</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>416016; 1063043</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>239328; 283292</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>268274; 292561</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>731031; 1550173</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>471302; 527599</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_TEN-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial</t>
+          <t>Consumo de medicamentos para la tensión arterial (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial</t>
+          <t>Consumo de medicamentos para la tensión arterial (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_TEN-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>38,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,12; 38,92</t>
+          <t>27,16; 35,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,95; 40,35</t>
+          <t>28,91; 40,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,06; 44,91</t>
+          <t>35,46; 42,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,76; 51,81</t>
+          <t>43,66; 51,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,31; 41,28</t>
+          <t>33,15; 38,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,56; 46,55</t>
+          <t>39,61; 46,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,17; 22,49</t>
+          <t>17,35; 20,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 16,01</t>
+          <t>6,93; 16,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 17,69</t>
+          <t>14,18; 17,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 51,15</t>
+          <t>12,01; 55,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,43; 19,66</t>
+          <t>16,13; 18,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,8; 40,81</t>
+          <t>11,83; 39,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 16,13</t>
+          <t>11,08; 15,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,07; 21,63</t>
+          <t>15,33; 22,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,45</t>
+          <t>5,96; 9,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,38; 14,05</t>
+          <t>9,45; 14,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 11,23</t>
+          <t>8,6; 11,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 16,98</t>
+          <t>13,06; 17,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 22,45</t>
+          <t>17,72; 20,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,4; 19,2</t>
+          <t>10,84; 19,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 19,16</t>
+          <t>15,68; 18,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,7; 47,79</t>
+          <t>18,9; 46,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,54; 20,22</t>
+          <t>16,99; 18,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 35,88</t>
+          <t>16,82; 34,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30385</t>
+          <t>26028</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52086</t>
+          <t>47265</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82471</t>
+          <t>73294</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26521; 34272</t>
+          <t>22418; 29671</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66097; 92107</t>
+          <t>66008; 92020</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47342; 57369</t>
+          <t>43062; 52115</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>172889; 204705</t>
+          <t>172495; 204711</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76213; 89089</t>
+          <t>67629; 79063</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>246635; 290156</t>
+          <t>246921; 290654</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94392</t>
+          <t>87102</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69341</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>156505</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86930; 101999</t>
+          <t>80089; 94568</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>103606; 225514</t>
+          <t>97552; 227317</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63038; 76384</t>
+          <t>63012; 76390</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>168482; 708865</t>
+          <t>166438; 773430</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>154333; 174005</t>
+          <t>146146; 166272</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>329775; 1140482</t>
+          <t>330445; 1113815</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20640</t>
+          <t>23290</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13168</t>
+          <t>16831</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33808</t>
+          <t>40120</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16880; 24456</t>
+          <t>19448; 27431</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>69273; 99460</t>
+          <t>70476; 101179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10531; 16404</t>
+          <t>13588; 21098</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41598; 62289</t>
+          <t>41898; 62987</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>29356; 38848</t>
+          <t>34701; 45252</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>117115; 153380</t>
+          <t>117912; 156023</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>145417</t>
+          <t>136419</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>134595</t>
+          <t>133500</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>280012</t>
+          <t>269919</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>135922; 155595</t>
+          <t>127562; 146498</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>238964; 402487</t>
+          <t>227264; 401886</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>125443; 144452</t>
+          <t>124453; 143034</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>416016; 1063043</t>
+          <t>420423; 1029097</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>268274; 292561</t>
+          <t>257213; 282459</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>731031; 1550173</t>
+          <t>726745; 1493989</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_TEN-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>33,69%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34,45%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>31,53%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>34,68%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>34,45%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>46,38%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45,35%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>38,92%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>47,64%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>45,35%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>41,67%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>35,93%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,89%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>40,54%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>28,1; 39,03</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>29,96; 38,75</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>27,16; 35,95</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>28,91; 40,31</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>29,96; 38,75</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>42,5; 50,28</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41,25; 49,58</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>35,46; 42,91</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>43,66; 51,81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>41,25; 49,58</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>38,32; 45,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37,73; 43,69</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>33,15; 38,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>39,61; 46,62</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>37,73; 43,69</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>18,87%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,77%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,05%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>15,62%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>25,67%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>13,1%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,27%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>19,17%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,57%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>13,12; 16,97</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12,42; 15,68</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>17,35; 20,48</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,93; 16,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>12,42; 15,68</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>12,14; 15,14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 14,91</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>14,18; 17,19</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>12,01; 55,81</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>11,49; 14,91</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>13,07; 15,54</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 14,82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>16,13; 18,35</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>11,83; 39,86</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>12,46; 14,82</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>13,27%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>18,45%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,73%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>12,23%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>7,38%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,58%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>9,94%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15,13%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>14,91; 21,4</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 13,37</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>11,08; 15,62</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>15,33; 22,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8,65; 13,37</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>9,82; 14,68</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 7,38</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>5,96; 9,25</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9,45; 14,21</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 7,38</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>13,13; 17,38</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 9,44</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>8,6; 11,21</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>13,06; 17,27</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6,62; 9,44</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16,21%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>18,95%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16,4%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>16,21%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>16,82%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>26,78%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16,75%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>17,83%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>21,74%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>16,34; 19,68</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14,9; 17,6</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>17,72; 20,35</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>10,84; 19,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>14,9; 17,6</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>18,24; 21,04</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 18,17</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>15,68; 18,02</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>18,9; 46,27</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>15,35; 18,17</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>17,92; 19,95</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15,63; 17,5</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>16,99; 18,66</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>16,82; 34,58</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>15,63; 17,5</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>172</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>301</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>473</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>549</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>86043</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>74331</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>26028</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>79162</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>74331</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>200627</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>124111</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>47265</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>188218</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>124111</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>286670</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>198442</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>73294</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>267380</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>198442</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>71775; 99668</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>64649; 83627</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>22418; 29671</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>66008; 92020</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>64649; 83627</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>183869; 217494</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>112903; 135678</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>43062; 52115</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>172495; 204711</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>112903; 135678</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>263637; 310010</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>184678; 213852</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>67629; 79063</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>246921; 290654</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>184678; 213852</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>531</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>415</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>946</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>518</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>552</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>193420</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>121106</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>87102</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>179856</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>121106</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>172541</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>113704</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>69403</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>355702</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>113704</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>365961</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>234809</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>156505</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>535558</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>234809</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>168769; 218316</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>107024; 135158</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>80089; 94568</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>97552; 227317</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>107024; 135158</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>154304; 192358</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>99792; 129447</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>63012; 76390</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>166438; 773430</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>99792; 129447</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>334152; 397404</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>215637; 256358</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>146146; 166272</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>330445; 1113815</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>215637; 256358</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>128</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>214</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>134</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>91334</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40602</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>23290</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>84826</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>40602</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>60629</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23250</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>16831</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>51801</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>23250</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>151963</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>63852</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>40120</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>136627</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>63852</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>76042; 109119</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32746; 50619</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>19448; 27431</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>70476; 101179</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>32746; 50619</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>48687; 72799</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17384; 30769</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>13588; 21098</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>41898; 62987</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>17384; 30769</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>132076; 174768</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>52640; 75107</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>34701; 45252</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>117912; 156023</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>52640; 75107</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>831</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>628</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>802</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>725</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>607</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>1633</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1183</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1235</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>370797</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>236039</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>136419</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>343844</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>236039</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>433797</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>261065</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>133500</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>595722</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>261065</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>804594</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>497103</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>269919</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>939565</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>497103</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>335364; 403814</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>216997; 256334</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>127562; 146498</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>227264; 401886</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>216997; 256334</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>401179; 462665</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>239328; 283292</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>124453; 143034</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>420423; 1029097</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>239328; 283292</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>761960; 848240</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>471302; 527599</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>257213; 282459</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>726745; 1493989</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>471302; 527599</t>
         </is>
       </c>
     </row>
